--- a/04 Economist Style Data Visualization/Practice File.xlsx
+++ b/04 Economist Style Data Visualization/Practice File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27304"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/04 Economist Style Visualization/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b7f320934ce7607/06 Data Science ^0 Analytics/Github/Microsoft-Excel-For-Analytics/04 Economist Style Data Visualization/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{082B3C4B-9914-B043-AFC9-906433282BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CFF01CF-1F8E-43FD-A239-CCAC98A65AB8}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="8_{082B3C4B-9914-B043-AFC9-906433282BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EDB8E8BB-24FE-4E04-B567-A8AB04FB245D}"/>
   <bookViews>
-    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" activeTab="2" xr2:uid="{B24119F6-0F42-2247-B930-E946363B9DEB}"/>
+    <workbookView xWindow="-104" yWindow="-104" windowWidth="20098" windowHeight="11914" activeTab="1" xr2:uid="{B24119F6-0F42-2247-B930-E946363B9DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -657,9 +657,8 @@
                 <a:pPr>
                   <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
+                      <a:schemeClr val="bg1">
+                        <a:lumMod val="65000"/>
                       </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
@@ -753,7 +752,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
+        <c:gapWidth val="80"/>
         <c:overlap val="100"/>
         <c:axId val="1388071872"/>
         <c:axId val="991121200"/>
@@ -2487,42 +2486,6 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>771350</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>62332</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>724601</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>194786</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612E102F-1D67-AAC9-5072-F4D7E34CE1ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2550,7 +2513,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -2565,6 +2528,522 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>771350</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>45017</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>724601</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>194786</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="13" name="Group 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D72ABD-EB0F-3DFD-F968-C10795B24C2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="4142222" y="1242743"/>
+          <a:ext cx="3328659" cy="2545220"/>
+          <a:chOff x="4142222" y="1242743"/>
+          <a:chExt cx="3328659" cy="2545220"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:graphicFrame macro="">
+        <xdr:nvGraphicFramePr>
+          <xdr:cNvPr id="2" name="Chart 1">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{612E102F-1D67-AAC9-5072-F4D7E34CE1ED}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGraphicFramePr/>
+        </xdr:nvGraphicFramePr>
+        <xdr:xfrm>
+          <a:off x="4142222" y="1659300"/>
+          <a:ext cx="3328659" cy="2128663"/>
+        </xdr:xfrm>
+        <a:graphic>
+          <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+            <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          </a:graphicData>
+        </a:graphic>
+      </xdr:graphicFrame>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="TextBox 3">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87FB865C-8BCE-EE4C-512D-DEFF487B8363}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4255083" y="1766472"/>
+            <a:ext cx="908426" cy="135048"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>lphabet (Google)</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="5" name="TextBox 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECB1B52E-C076-517E-D891-9C436BD9E312}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4250085" y="2231190"/>
+            <a:ext cx="908426" cy="133184"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>mazon</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="6" name="TextBox 5">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B7E904D-8FD2-4897-D584-A9CDF039CFF6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4253160" y="2685972"/>
+            <a:ext cx="908426" cy="135049"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>F</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>acebook</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="7" name="TextBox 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4152DAB-122E-2636-8C46-5534FE12EE08}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4256233" y="3156896"/>
+            <a:ext cx="908426" cy="135049"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>A</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>pple</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="8" name="TextBox 7">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D111CF4C-A9D0-467A-81CF-96AB32FEF38E}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4254120" y="1616184"/>
+            <a:ext cx="1668487" cy="134145"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>2019 Revenue</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="800" b="1" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> Forecast, as % of total</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-IN" sz="800" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="9" name="TextBox 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34D1B79A-C526-4159-6A5C-FB0ED3510C92}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4261230" y="1256337"/>
+            <a:ext cx="2085141" cy="401168"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:ln w="9525" cmpd="sng">
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1050" b="1">
+                <a:solidFill>
+                  <a:srgbClr val="E40918"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>This is how the biggest technology giants make their money</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="11" name="Straight Connector 10">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B11BD8A8-FF6C-15E2-655B-5F76AF8F8F97}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4291850" y="1283926"/>
+            <a:ext cx="3044219" cy="0"/>
+          </a:xfrm>
+          <a:prstGeom prst="line">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="E40918"/>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="12" name="Rectangle 11">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED0F0F17-4D04-2266-C95A-D6C3C6D67EB4}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="4291125" y="1242743"/>
+            <a:ext cx="358410" cy="45719"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:srgbClr val="E40918"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="2">
+            <a:schemeClr val="accent1">
+              <a:shade val="15000"/>
+            </a:schemeClr>
+          </a:lnRef>
+          <a:fillRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="lt1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="en-IN" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2583,7 +3062,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>730754</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>130224</xdr:rowOff>
+      <xdr:rowOff>64439</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2614,6 +3093,289 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>811755</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>52769</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1019654</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>13158</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EFE540-A430-4975-93B2-82D86FDC8123}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8613758" y="743503"/>
+          <a:ext cx="1891974" cy="157741"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="900" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>2018, micrograms per cubic meter*</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>799131</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22888</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>124990</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>105256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="TextBox 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E451B860-D4EE-4B91-AF57-3B211F420D81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8601134" y="253133"/>
+          <a:ext cx="2430872" cy="542857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" lIns="36000" tIns="36000" rIns="36000" bIns="36000" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="E40918"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>These are the most polluted</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1">
+              <a:solidFill>
+                <a:srgbClr val="E40918"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>cities</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1400" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="E40918"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> in the world</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1400" b="1">
+            <a:solidFill>
+              <a:srgbClr val="E40918"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>836329</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17586</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>13157</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>17586</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="Straight Connector 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE094797-FFFC-4ED8-AD6C-6CBF00CED44B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8638332" y="247831"/>
+          <a:ext cx="3479113" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="E40918"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>835604</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>207692</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>351977</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>22122</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97ECDC93-4F6D-42EC-8528-0F0235F955FC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8637607" y="207692"/>
+          <a:ext cx="358410" cy="44675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="E40918"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2959,8 +3721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9D11862-36E8-8545-B5B7-720E7EC927B5}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="163" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
@@ -3030,10 +3792,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4CC1F30-FC53-134D-B1DD-9E2961C2A896}">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="126" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
@@ -3056,7 +3818,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3066,8 +3828,11 @@
       <c r="C2" s="1">
         <v>136</v>
       </c>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
     </row>
-    <row r="3" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -3077,15 +3842,9 @@
       <c r="C3" s="1">
         <v>135</v>
       </c>
-      <c r="J3" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
@@ -3097,17 +3856,8 @@
       <c r="C4" s="1">
         <v>130</v>
       </c>
-      <c r="J4" s="11">
-        <v>1</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="7">
-        <v>136</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="18.149999999999999" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -3117,14 +3867,14 @@
       <c r="C5" s="1">
         <v>129</v>
       </c>
-      <c r="J5" s="12">
-        <v>2</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="L5" s="9">
-        <v>135</v>
+      <c r="J5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.35">
@@ -3137,14 +3887,14 @@
       <c r="C6" s="1">
         <v>125</v>
       </c>
-      <c r="J6" s="13">
-        <v>3</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="L6" s="15">
-        <v>130</v>
+      <c r="J6" s="11">
+        <v>1</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L6" s="7">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.35">
@@ -3158,13 +3908,13 @@
         <v>124</v>
       </c>
       <c r="J7" s="12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="L7" s="9">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.35">
@@ -3177,14 +3927,14 @@
       <c r="C8" s="1">
         <v>120</v>
       </c>
-      <c r="J8" s="11">
-        <v>5</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L8" s="7">
-        <v>125</v>
+      <c r="J8" s="13">
+        <v>3</v>
+      </c>
+      <c r="K8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="15">
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.35">
@@ -3197,14 +3947,14 @@
       <c r="C9" s="1">
         <v>116</v>
       </c>
-      <c r="J9" s="11">
-        <v>6</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="L9" s="7">
-        <v>124</v>
+      <c r="J9" s="12">
+        <v>4</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="9">
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.35">
@@ -3218,13 +3968,13 @@
         <v>116</v>
       </c>
       <c r="J10" s="11">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L10" s="7">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.35">
@@ -3237,14 +3987,14 @@
       <c r="C11" s="1">
         <v>115</v>
       </c>
-      <c r="J11" s="13">
-        <v>8</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L11" s="15">
-        <v>116</v>
+      <c r="J11" s="11">
+        <v>6</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="7">
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.35">
@@ -3258,13 +4008,13 @@
         <v>114</v>
       </c>
       <c r="J12" s="11">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K12" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L12" s="7">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.35">
@@ -3278,13 +4028,13 @@
         <v>113</v>
       </c>
       <c r="J13" s="13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L13" s="15">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.35">
@@ -3298,13 +4048,13 @@
         <v>110</v>
       </c>
       <c r="J14" s="11">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="K14" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="L14" s="7">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.35">
@@ -3317,14 +4067,14 @@
       <c r="C15" s="1">
         <v>105</v>
       </c>
-      <c r="J15" s="11">
-        <v>12</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="L15" s="7">
-        <v>113</v>
+      <c r="J15" s="13">
+        <v>10</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="L15" s="15">
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.35">
@@ -3338,39 +4088,61 @@
         <v>105</v>
       </c>
       <c r="J16" s="11">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" s="7">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J17" s="11">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="K17" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="L17" s="7">
-        <v>105</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J18" s="11">
+        <v>13</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="7">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J19" s="11">
+        <v>14</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="7">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J20" s="11">
         <v>15</v>
       </c>
-      <c r="K18" s="8" t="s">
+      <c r="K20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="L18" s="7">
+      <c r="L20" s="7">
         <v>105</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L4:L18">
+  <conditionalFormatting sqref="L6:L20">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -3389,8 +4161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4597A33D-257A-E149-B3E4-F27B8A214D27}">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.55" x14ac:dyDescent="0.35"/>
